--- a/DDFunctionApp1/SimpleInvoiceJP.xlsx
+++ b/DDFunctionApp1/SimpleInvoiceJP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF4889-B24B-43C3-AA16-3C3296C9F39B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC713B0-2803-4398-8312-C94095F274C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>伝票番号</t>
     <rPh sb="0" eb="2">
@@ -40,10 +40,6 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>03-100</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -108,28 +104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スポーツバッグ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>財布・赤</t>
-    <rPh sb="0" eb="2">
-      <t>サイフ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レプリカ ユニフォーム (ホーム)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レプリカ ユニフォーム (アウェイ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -154,10 +128,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チームマスコットぬいぐるみ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>総  額</t>
     <rPh sb="0" eb="1">
       <t>フサ</t>
@@ -200,76 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>成宮 真紀</t>
-    <rPh sb="0" eb="2">
-      <t>ナルミヤ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〒 ○○○- ○○○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○県○○市</t>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○ ×-×-×</t>
-  </si>
-  <si>
-    <t>株式会社 ○○○○</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〒 ○○○- ○○○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○県○○市○○ ×-×-×</t>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○銀行</t>
-    <rPh sb="2" eb="4">
-      <t>ギンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0xx-xxx-xxxx (代)</t>
-    <rPh sb="14" eb="15">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">○○支店 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>株式会社  ○○○○ ×××支店</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>当座預金</t>
     <rPh sb="0" eb="2">
       <t>トウザ</t>
@@ -277,10 +177,6 @@
     <rPh sb="2" eb="4">
       <t>ヨキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ００９－０９８１９</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -294,17 +190,115 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>藤島  昭英</t>
-    <rPh sb="0" eb="2">
-      <t>フジシマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>アキヒデ</t>
-    </rPh>
+    <t>様</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>様</t>
+    <t>[発行日]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[伝票番号]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[担当者]</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[発行元]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[郵便番号]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[所在地]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[電話番号]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[銀行名]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[支店名]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[口座番号]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[顧客情報.氏名]</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[顧客情報.会社名]</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[顧客情報.住所1]</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[顧客情報.住所2]</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[顧客情報.郵便番号]</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -312,10 +306,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -900,7 +895,6 @@
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,6 +925,15 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,12 +949,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -982,63 +1012,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1380,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -1390,464 +1385,424 @@
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2">
-        <v>38056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="H2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G10" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="10" t="s">
+      <c r="A17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="39">
-        <v>100</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="51">
-        <v>100</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1200</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
         <f t="shared" ref="G18:G28" si="0">E18*F18</f>
-        <v>120000</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="45">
-        <v>101</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="53">
-        <v>50</v>
-      </c>
-      <c r="F20" s="25">
-        <v>3500</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="0"/>
-        <v>175000</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="45">
-        <v>105</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="53">
-        <v>100</v>
-      </c>
-      <c r="F22" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="24">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="45">
-        <v>200</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="53">
-        <v>20</v>
-      </c>
-      <c r="F24" s="25">
-        <v>8000</v>
-      </c>
-      <c r="G24" s="24">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="45">
-        <v>201</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="53">
-        <v>20</v>
-      </c>
-      <c r="F26" s="25">
-        <v>8000</v>
-      </c>
-      <c r="G26" s="24">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35">
         <f>E30*F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
         <f>E32*F32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35">
         <f>E34*F34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35">
         <f>E36*F36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="C38" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C39" s="37"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16">
+      <c r="C39" s="51"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15">
         <f>SUM(G18:G37)</f>
-        <v>815000</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="14">
         <f>E39*0.08</f>
-        <v>65200</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8">
         <f>E39+G39</f>
-        <v>880200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1875,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="53" man="1"/>
@@ -3126,9 +3081,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DDFunctionApp1/SimpleInvoiceJP.xlsx
+++ b/DDFunctionApp1/SimpleInvoiceJP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\DDFunctionApp1\DDFunctionApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC713B0-2803-4398-8312-C94095F274C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C389E2-525E-4EED-AD85-E9B19256CD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,9 +310,9 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -370,13 +370,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -909,7 +902,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,21 +911,94 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,24 +1014,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -976,64 +1026,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1376,7 +1369,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -1385,24 +1378,24 @@
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1421,21 +1414,21 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
@@ -1454,21 +1447,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1477,16 +1467,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1500,12 +1490,12 @@
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1515,287 +1505,287 @@
       <c r="G17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="32">
         <f t="shared" ref="G18:G28" si="0">E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="29">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="29">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="29">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="29">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30">
         <f>E30*F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30">
         <f>E32*F32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30">
         <f>E34*F34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30">
         <f>E36*F36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="54" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="54" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C39" s="51"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <f>SUM(G18:G37)</f>
         <v>0</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <f>E39*0.08</f>
         <v>0</v>
       </c>
@@ -1807,54 +1797,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A17:D17"/>
@@ -1871,6 +1813,54 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -1884,15 +1874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
@@ -2028,6 +2009,15 @@
     <LocMarketGroupTiers2 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3071,14 +3061,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3090,6 +3072,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DDFunctionApp1/SimpleInvoiceJP.xlsx
+++ b/DDFunctionApp1/SimpleInvoiceJP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\DDFunctionApp1\DDFunctionApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C389E2-525E-4EED-AD85-E9B19256CD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E992D0-FB76-4129-9E9A-C875B97BDEA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -911,13 +911,94 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -939,94 +1020,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -1387,7 +1387,7 @@
       <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="54" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1414,21 +1414,21 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
@@ -1490,12 +1490,12 @@
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1505,280 +1505,280 @@
       <c r="G17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="32">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
         <f t="shared" ref="G18:G28" si="0">E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="43">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="43">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="43">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="43">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35">
         <f>E30*F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
         <f>E32*F32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35">
         <f>E34*F34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35">
         <f>E36*F36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C39" s="24"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="7"/>
       <c r="E39" s="14">
         <f>SUM(G18:G37)</f>
@@ -1797,6 +1797,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A17:D17"/>
@@ -1813,54 +1861,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -1874,6 +1874,1055 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
+    <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:AcquiredFrom" minOccurs="0"/>
+                <xsd:element ref="ns2:UACurrentWords" minOccurs="0"/>
+                <xsd:element ref="ns2:TPApplication" minOccurs="0"/>
+                <xsd:element ref="ns2:ApprovalLog" minOccurs="0"/>
+                <xsd:element ref="ns2:ApprovalStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetStart" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetExpire" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:IsSearchable" minOccurs="0"/>
+                <xsd:element ref="ns2:AssetType" minOccurs="0"/>
+                <xsd:element ref="ns2:APAuthor" minOccurs="0"/>
+                <xsd:element ref="ns2:AverageRating" minOccurs="0"/>
+                <xsd:element ref="ns2:BlockPublish" minOccurs="0"/>
+                <xsd:element ref="ns2:BugNumber" minOccurs="0"/>
+                <xsd:element ref="ns2:CampaignTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:TPClientViewer" minOccurs="0"/>
+                <xsd:element ref="ns2:ClipArtFilename" minOccurs="0"/>
+                <xsd:element ref="ns2:TPCommandLine" minOccurs="0"/>
+                <xsd:element ref="ns2:TPComponent" minOccurs="0"/>
+                <xsd:element ref="ns2:ContentItem" minOccurs="0"/>
+                <xsd:element ref="ns2:CrawlForDependencies" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXHash" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXSubmissionMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReviewDate" minOccurs="0"/>
+                <xsd:element ref="ns2:IsDeleted" minOccurs="0"/>
+                <xsd:element ref="ns2:APDescription" minOccurs="0"/>
+                <xsd:element ref="ns2:DirectSourceMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:Downloads" minOccurs="0"/>
+                <xsd:element ref="ns2:DSATActionTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:APEditor" minOccurs="0"/>
+                <xsd:element ref="ns2:EditorialStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:EditorialTags" minOccurs="0"/>
+                <xsd:element ref="ns2:TPExecutable" minOccurs="0"/>
+                <xsd:element ref="ns2:FeatureTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:TPFriendlyName" minOccurs="0"/>
+                <xsd:element ref="ns2:FriendlyTitle" minOccurs="0"/>
+                <xsd:element ref="ns2:PrimaryImageGen" minOccurs="0"/>
+                <xsd:element ref="ns2:HandoffToMSDN" minOccurs="0"/>
+                <xsd:element ref="ns2:InProjectListLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:TPInstallLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:InternalTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReview" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLangReviewer" minOccurs="0"/>
+                <xsd:element ref="ns2:MarketSpecific" minOccurs="0"/>
+                <xsd:element ref="ns2:LastCompleteVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastHandOff" minOccurs="0"/>
+                <xsd:element ref="ns2:LastModifiedDateTime" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewErrorLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewResultLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewAttemptDateLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewedByLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewTimeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPreviewVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishErrorLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishResultLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishAttemptDateLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishedByLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishTimeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LastPublishVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:TPLaunchHelpLinkType" minOccurs="0"/>
+                <xsd:element ref="ns2:LegacyData" minOccurs="0"/>
+                <xsd:element ref="ns2:TPLaunchHelpLink" minOccurs="0"/>
+                <xsd:element ref="ns2:LocComments" minOccurs="0"/>
+                <xsd:element ref="ns2:LocLastLocAttemptVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocLastLocAttemptVersionTypeLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocManualTestRequired" minOccurs="0"/>
+                <xsd:element ref="ns2:LocMarketGroupTiers2" minOccurs="0"/>
+                <xsd:element ref="ns2:LocNewPublishedVersionLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallHandbackStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallLocStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallPreviewStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocOverallPublishStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:IntlLocPriority" minOccurs="0"/>
+                <xsd:element ref="ns2:LocProcessedForHandoffsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocProcessedForMarketsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocPublishedDependentAssetsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocPublishedLinkedAssetsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:LocRecommendedHandoff" minOccurs="0"/>
+                <xsd:element ref="ns2:LocalizationTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:MachineTranslated" minOccurs="0"/>
+                <xsd:element ref="ns2:Manager" minOccurs="0"/>
+                <xsd:element ref="ns2:Markets" minOccurs="0"/>
+                <xsd:element ref="ns2:Milestone" minOccurs="0"/>
+                <xsd:element ref="ns2:TPNamespace" minOccurs="0"/>
+                <xsd:element ref="ns2:NumericId" minOccurs="0"/>
+                <xsd:element ref="ns2:NumOfRatingsLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:OOCacheId" minOccurs="0"/>
+                <xsd:element ref="ns2:OpenTemplate" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginAsset" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginalRelease" minOccurs="0"/>
+                <xsd:element ref="ns2:OriginalSourceMarket" minOccurs="0"/>
+                <xsd:element ref="ns2:OutputCachingOn" minOccurs="0"/>
+                <xsd:element ref="ns2:ParentAssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:PlannedPubDate" minOccurs="0"/>
+                <xsd:element ref="ns2:PolicheckWords" minOccurs="0"/>
+                <xsd:element ref="ns2:BusinessGroup" minOccurs="0"/>
+                <xsd:element ref="ns2:UAProjectedTotalWords" minOccurs="0"/>
+                <xsd:element ref="ns2:Provider" minOccurs="0"/>
+                <xsd:element ref="ns2:Providers" minOccurs="0"/>
+                <xsd:element ref="ns2:PublishStatusLookup" minOccurs="0"/>
+                <xsd:element ref="ns2:PublishTargets" minOccurs="0"/>
+                <xsd:element ref="ns2:RecommendationsModifier" minOccurs="0"/>
+                <xsd:element ref="ns2:ArtSampleDocs" minOccurs="0"/>
+                <xsd:element ref="ns2:ScenarioTagsTaxHTField0" minOccurs="0"/>
+                <xsd:element ref="ns2:ShowIn" minOccurs="0"/>
+                <xsd:element ref="ns2:SourceTitle" minOccurs="0"/>
+                <xsd:element ref="ns2:CSXSubmissionDate" minOccurs="0"/>
+                <xsd:element ref="ns2:SubmitterId" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:TemplateStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:TemplateTemplateType" minOccurs="0"/>
+                <xsd:element ref="ns2:ThumbnailAssetId" minOccurs="0"/>
+                <xsd:element ref="ns2:TimesCloned" minOccurs="0"/>
+                <xsd:element ref="ns2:TrustLevel" minOccurs="0"/>
+                <xsd:element ref="ns2:UALocComments" minOccurs="0"/>
+                <xsd:element ref="ns2:UALocRecommendation" minOccurs="0"/>
+                <xsd:element ref="ns2:UANotes" minOccurs="0"/>
+                <xsd:element ref="ns2:TPAppVersion" minOccurs="0"/>
+                <xsd:element ref="ns2:VoteCount" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="AcquiredFrom" ma:index="1" nillable="true" ma:displayName="Acquired From" ma:default="Internal MS" ma:internalName="AcquiredFrom" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Internal MS"/>
+          <xsd:enumeration value="Community"/>
+          <xsd:enumeration value="MVP"/>
+          <xsd:enumeration value="Publisher"/>
+          <xsd:enumeration value="Partner"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UACurrentWords" ma:index="2" nillable="true" ma:displayName="Actual Word Count" ma:default="" ma:internalName="UACurrentWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPApplication" ma:index="3" nillable="true" ma:displayName="Application to Open Template With" ma:default="" ma:internalName="TPApplication">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ApprovalLog" ma:index="4" nillable="true" ma:displayName="Approval Log" ma:default="" ma:hidden="true" ma:internalName="ApprovalLog" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ApprovalStatus" ma:index="5" nillable="true" ma:displayName="Approval Status" ma:default="InProgress" ma:internalName="ApprovalStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="InProgress"/>
+          <xsd:enumeration value="Rejected"/>
+          <xsd:enumeration value="Questionable"/>
+          <xsd:enumeration value="ApprovedAutomatic"/>
+          <xsd:enumeration value="ApprovedManual"/>
+          <xsd:enumeration value="On Hold"/>
+          <xsd:enumeration value="Needs Review"/>
+          <xsd:enumeration value="A Violation"/>
+          <xsd:enumeration value="Unpublished Violation"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetStart" ma:index="6" nillable="true" ma:displayName="Asset Begin Date" ma:default="[Today]" ma:internalName="AssetStart" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetExpire" ma:index="7" nillable="true" ma:displayName="Asset End Date" ma:default="2029-01-01T00:00:00Z" ma:internalName="AssetExpire" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetId" ma:index="8" nillable="true" ma:displayName="Asset ID" ma:default="" ma:indexed="true" ma:internalName="AssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IsSearchable" ma:index="9" nillable="true" ma:displayName="Asset Searchable?" ma:default="true" ma:internalName="IsSearchable" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AssetType" ma:index="10" nillable="true" ma:displayName="Asset Type" ma:default="" ma:internalName="AssetType" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APAuthor" ma:index="11" nillable="true" ma:displayName="Author" ma:default="" ma:list="UserInfo" ma:internalName="APAuthor" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="AverageRating" ma:index="12" nillable="true" ma:displayName="Average Rating" ma:internalName="AverageRating" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BlockPublish" ma:index="13" nillable="true" ma:displayName="Block from Publishing?" ma:default="" ma:internalName="BlockPublish" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BugNumber" ma:index="14" nillable="true" ma:displayName="Bug Number" ma:default="" ma:internalName="BugNumber" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CampaignTagsTaxHTField0" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="CampaignTagsTaxHTField0" ma:taxonomyFieldName="CampaignTags" ma:displayName="Campaigns" ma:readOnly="false" ma:default="" ma:fieldId="{04032b9e-8ee6-4e89-b9db-4ffff205d025}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="ca0e50d4-faa1-44ce-961e-bb1441c60e66" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPClientViewer" ma:index="17" nillable="true" ma:displayName="Client Viewer" ma:default="" ma:internalName="TPClientViewer">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ClipArtFilename" ma:index="18" nillable="true" ma:displayName="Clip Art Name" ma:default="" ma:internalName="ClipArtFilename" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPCommandLine" ma:index="19" nillable="true" ma:displayName="Command Line" ma:default="" ma:internalName="TPCommandLine">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPComponent" ma:index="20" nillable="true" ma:displayName="Component" ma:default="" ma:internalName="TPComponent">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ContentItem" ma:index="21" nillable="true" ma:displayName="Content Item" ma:default="" ma:hidden="true" ma:internalName="ContentItem" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CrawlForDependencies" ma:index="23" nillable="true" ma:displayName="Crawl for Dependencies?" ma:default="true" ma:internalName="CrawlForDependencies" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXHash" ma:index="26" nillable="true" ma:displayName="CSX Hash" ma:default="" ma:indexed="true" ma:internalName="CSXHash" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXSubmissionMarket" ma:index="27" nillable="true" ma:displayName="CSX Submission Market" ma:default="" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="CSXSubmissionMarket" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXUpdate" ma:index="28" nillable="true" ma:displayName="CSX Updated?" ma:default="false" ma:internalName="CSXUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLangReviewDate" ma:index="29" nillable="true" ma:displayName="Date to Complete Intl QA" ma:default="" ma:internalName="IntlLangReviewDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IsDeleted" ma:index="30" nillable="true" ma:displayName="Deleted?" ma:default="" ma:internalName="IsDeleted" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APDescription" ma:index="31" nillable="true" ma:displayName="Description" ma:default="" ma:internalName="APDescription" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DirectSourceMarket" ma:index="32" nillable="true" ma:displayName="Direct Source Market Group" ma:default="" ma:internalName="DirectSourceMarket" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Downloads" ma:index="33" nillable="true" ma:displayName="Downloads" ma:default="0" ma:hidden="true" ma:internalName="Downloads" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DSATActionTaken" ma:index="34" nillable="true" ma:displayName="DSAT Action Taken" ma:default="" ma:internalName="DSATActionTaken" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Best Bets"/>
+          <xsd:enumeration value="Expire"/>
+          <xsd:enumeration value="Hide"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="APEditor" ma:index="35" nillable="true" ma:displayName="Editor" ma:default="" ma:list="UserInfo" ma:internalName="APEditor" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="EditorialStatus" ma:index="36" nillable="true" ma:displayName="Editorial Status" ma:default="" ma:internalName="EditorialStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EditorialTags" ma:index="37" nillable="true" ma:displayName="Editorial Tags" ma:default="" ma:internalName="EditorialTags">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPExecutable" ma:index="38" nillable="true" ma:displayName="Executable" ma:default="" ma:internalName="TPExecutable">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FeatureTagsTaxHTField0" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="FeatureTagsTaxHTField0" ma:taxonomyFieldName="FeatureTags" ma:displayName="Features" ma:readOnly="false" ma:default="" ma:fieldId="{5dcf7547-996b-4a0e-b7d1-0f761d14131b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="f1ab6845-967d-4854-a0ba-4ec07f0f8113" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPFriendlyName" ma:index="41" nillable="true" ma:displayName="Friendly Name" ma:default="" ma:internalName="TPFriendlyName">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FriendlyTitle" ma:index="42" nillable="true" ma:displayName="Friendly Title" ma:default="" ma:description="Shorter title to be used when displaying search results" ma:internalName="FriendlyTitle" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PrimaryImageGen" ma:index="43" nillable="true" ma:displayName="Generate Images?" ma:default="true" ma:internalName="PrimaryImageGen">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="HandoffToMSDN" ma:index="44" nillable="true" ma:displayName="Handoff To MSDN Date" ma:default="" ma:internalName="HandoffToMSDN" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="InProjectListLookup" ma:index="45" nillable="true" ma:displayName="InProjectListLookup" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="InProjectListLookup" ma:readOnly="true" ma:showField="InProjectList" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPInstallLocation" ma:index="46" nillable="true" ma:displayName="Install Location" ma:default="" ma:internalName="TPInstallLocation">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="InternalTagsTaxHTField0" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="InternalTagsTaxHTField0" ma:taxonomyFieldName="InternalTags" ma:displayName="Internal Tags" ma:readOnly="false" ma:default="" ma:fieldId="{e5aec8e1-0842-4156-acaa-2defcf90540a}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="82b6639e-f7fc-4c18-ad2d-003a6e707765" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="IntlLangReview" ma:index="49" nillable="true" ma:displayName="Intl Lang QA Review Required?" ma:default="" ma:internalName="IntlLangReview" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLangReviewer" ma:index="50" nillable="true" ma:displayName="Intl Lang QA Reviewer" ma:default="" ma:internalName="IntlLangReviewer" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MarketSpecific" ma:index="51" nillable="true" ma:displayName="Is Market Specific?" ma:default="" ma:internalName="MarketSpecific" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastCompleteVersionLookup" ma:index="52" nillable="true" ma:displayName="Last Complete Version Lookup" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastCompleteVersionLookup" ma:readOnly="true" ma:showField="LastCompleteVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastHandOff" ma:index="53" nillable="true" ma:displayName="Last Hand-off" ma:default="" ma:internalName="LastHandOff" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastModifiedDateTime" ma:index="54" nillable="true" ma:displayName="Last Modified Date" ma:default="" ma:internalName="LastModifiedDateTime" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastPreviewErrorLookup" ma:index="55" nillable="true" ma:displayName="Last Preview Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewErrorLookup" ma:readOnly="true" ma:showField="LastPreviewError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewResultLookup" ma:index="56" nillable="true" ma:displayName="Last Preview Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewResultLookup" ma:readOnly="true" ma:showField="LastPreviewResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewAttemptDateLookup" ma:index="57" nillable="true" ma:displayName="Last Preview Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewAttemptDateLookup" ma:readOnly="true" ma:showField="LastPreviewAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewedByLookup" ma:index="58" nillable="true" ma:displayName="Last Previewed By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewedByLookup" ma:readOnly="true" ma:showField="LastPreviewedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewTimeLookup" ma:index="59" nillable="true" ma:displayName="Last Previewed Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewTimeLookup" ma:readOnly="true" ma:showField="LastPreviewTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPreviewVersionLookup" ma:index="60" nillable="true" ma:displayName="Last Previewed Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewVersionLookup" ma:readOnly="true" ma:showField="LastPreviewVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishErrorLookup" ma:index="61" nillable="true" ma:displayName="Last Publish Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishErrorLookup" ma:readOnly="true" ma:showField="LastPublishError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishResultLookup" ma:index="62" nillable="true" ma:displayName="Last Publish Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishResultLookup" ma:readOnly="true" ma:showField="LastPublishResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishAttemptDateLookup" ma:index="63" nillable="true" ma:displayName="Last Publish Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishAttemptDateLookup" ma:readOnly="true" ma:showField="LastPublishAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishedByLookup" ma:index="64" nillable="true" ma:displayName="Last Published By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishedByLookup" ma:readOnly="true" ma:showField="LastPublishedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishTimeLookup" ma:index="65" nillable="true" ma:displayName="Last Published Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishTimeLookup" ma:readOnly="true" ma:showField="LastPublishTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="LastPublishVersionLookup" ma:index="66" nillable="true" ma:displayName="Last Published Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishVersionLookup" ma:readOnly="true" ma:showField="LastPublishVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TPLaunchHelpLinkType" ma:index="67" nillable="true" ma:displayName="Launch Help Link Type" ma:default="Template" ma:internalName="TPLaunchHelpLinkType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Template"/>
+          <xsd:enumeration value="Training"/>
+          <xsd:enumeration value="URL"/>
+          <xsd:enumeration value="None"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LegacyData" ma:index="68" nillable="true" ma:displayName="Legacy Data" ma:default="" ma:internalName="LegacyData" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPLaunchHelpLink" ma:index="69" nillable="true" ma:displayName="Link to Launch Help Topic" ma:default="" ma:internalName="TPLaunchHelpLink">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocComments" ma:index="70" nillable="true" ma:displayName="Loc Approval Comments" ma:default="" ma:internalName="LocComments" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocLastLocAttemptVersionLookup" ma:index="71" nillable="true" ma:displayName="Loc Last Loc Attempt Version" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionLookup" ma:readOnly="false" ma:showField="LastLocAttemptVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocLastLocAttemptVersionTypeLookup" ma:index="72" nillable="true" ma:displayName="Loc Last Loc Attempt Version Type" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionTypeLookup" ma:readOnly="true" ma:showField="LastLocAttemptVersionType" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocManualTestRequired" ma:index="73" nillable="true" ma:displayName="Loc Manual Test Required" ma:default="" ma:internalName="LocManualTestRequired" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocMarketGroupTiers2" ma:index="74" nillable="true" ma:displayName="Loc Market Group Tiers" ma:internalName="LocMarketGroupTiers2" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocNewPublishedVersionLookup" ma:index="75" nillable="true" ma:displayName="Loc New Published Version Lookup" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocNewPublishedVersionLookup" ma:readOnly="true" ma:showField="NewPublishedVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallHandbackStatusLookup" ma:index="76" nillable="true" ma:displayName="Loc Overall Handback Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallHandbackStatusLookup" ma:readOnly="true" ma:showField="OverallHandbackStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallLocStatusLookup" ma:index="77" nillable="true" ma:displayName="Loc Overall Localize Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallLocStatusLookup" ma:readOnly="true" ma:showField="OverallLocStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallPreviewStatusLookup" ma:index="78" nillable="true" ma:displayName="Loc Overall Preview Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPreviewStatusLookup" ma:readOnly="true" ma:showField="OverallPreviewStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocOverallPublishStatusLookup" ma:index="79" nillable="true" ma:displayName="Loc Overall Publish Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPublishStatusLookup" ma:readOnly="true" ma:showField="OverallPublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IntlLocPriority" ma:index="80" nillable="true" ma:displayName="Loc Priority" ma:default="" ma:internalName="IntlLocPriority" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocProcessedForHandoffsLookup" ma:index="81" nillable="true" ma:displayName="Loc Processed For Handoffs" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForHandoffsLookup" ma:readOnly="true" ma:showField="ProcessedForHandoffs" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocProcessedForMarketsLookup" ma:index="82" nillable="true" ma:displayName="Loc Processed For Markets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForMarketsLookup" ma:readOnly="true" ma:showField="ProcessedForMarkets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocPublishedDependentAssetsLookup" ma:index="83" nillable="true" ma:displayName="Loc Published Dependent Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedDependentAssetsLookup" ma:readOnly="true" ma:showField="PublishedDependentAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocPublishedLinkedAssetsLookup" ma:index="84" nillable="true" ma:displayName="Loc Published Linked Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedLinkedAssetsLookup" ma:readOnly="true" ma:showField="PublishedLinkedAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocRecommendedHandoff" ma:index="85" nillable="true" ma:displayName="Loc Recommended Handoff" ma:default="" ma:indexed="true" ma:internalName="LocRecommendedHandoff" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LocalizationTagsTaxHTField0" ma:index="87" nillable="true" ma:taxonomy="true" ma:internalName="LocalizationTagsTaxHTField0" ma:taxonomyFieldName="LocalizationTags" ma:displayName="Localization Tags" ma:readOnly="false" ma:default="" ma:fieldId="{28ca5b26-415b-4822-b35b-d9a845b1b83b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="5b7703a5-8e8b-4b58-8b31-1cea35331da3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MachineTranslated" ma:index="88" nillable="true" ma:displayName="Machine Translated" ma:default="" ma:internalName="MachineTranslated" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Manager" ma:index="89" nillable="true" ma:displayName="Manager" ma:hidden="true" ma:internalName="Manager" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Markets" ma:index="90" nillable="true" ma:displayName="Markets" ma:default="" ma:description="Leave blank to show in all markets" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="Markets" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Milestone" ma:index="91" nillable="true" ma:displayName="Milestone" ma:default="" ma:internalName="Milestone" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPNamespace" ma:index="94" nillable="true" ma:displayName="Namespace" ma:default="" ma:internalName="TPNamespace">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NumericId" ma:index="95" nillable="true" ma:displayName="Numeric ID" ma:default="" ma:indexed="true" ma:internalName="NumericId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NumOfRatingsLookup" ma:index="96" nillable="true" ma:displayName="NumOfRatings" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="NumOfRatingsLookup" ma:readOnly="true" ma:showField="NumOfRatings" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="OOCacheId" ma:index="97" nillable="true" ma:displayName="OOCacheId" ma:internalName="OOCacheId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OpenTemplate" ma:index="98" nillable="true" ma:displayName="Open Template" ma:default="true" ma:internalName="OpenTemplate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginAsset" ma:index="99" nillable="true" ma:displayName="Origin Asset" ma:default="" ma:internalName="OriginAsset" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginalRelease" ma:index="100" nillable="true" ma:displayName="Original Release" ma:default="15" ma:internalName="OriginalRelease" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="14"/>
+          <xsd:enumeration value="15"/>
+          <xsd:enumeration value="16"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OriginalSourceMarket" ma:index="101" nillable="true" ma:displayName="Original Source Market Group" ma:default="" ma:internalName="OriginalSourceMarket" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OutputCachingOn" ma:index="102" nillable="true" ma:displayName="Output Caching" ma:default="true" ma:hidden="true" ma:internalName="OutputCachingOn" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ParentAssetId" ma:index="103" nillable="true" ma:displayName="Parent Asset Id" ma:default="" ma:internalName="ParentAssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PlannedPubDate" ma:index="104" nillable="true" ma:displayName="Planned Publish Date" ma:default="" ma:indexed="true" ma:internalName="PlannedPubDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PolicheckWords" ma:index="105" nillable="true" ma:displayName="Policheck Words" ma:default="" ma:internalName="PolicheckWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BusinessGroup" ma:index="106" nillable="true" ma:displayName="Product Division Owner" ma:default="" ma:internalName="BusinessGroup" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UAProjectedTotalWords" ma:index="107" nillable="true" ma:displayName="Projected Word Count" ma:default="" ma:internalName="UAProjectedTotalWords" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Provider" ma:index="108" nillable="true" ma:displayName="Provider" ma:default="" ma:internalName="Provider" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Providers" ma:index="109" nillable="true" ma:displayName="Providers" ma:default="" ma:internalName="Providers">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublishStatusLookup" ma:index="110" nillable="true" ma:displayName="Publish Status" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="PublishStatusLookup" ma:readOnly="false" ma:showField="PublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="PublishTargets" ma:index="111" nillable="true" ma:displayName="Publish Target" ma:default="OfficeOnlineVNext" ma:internalName="PublishTargets" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="RecommendationsModifier" ma:index="112" nillable="true" ma:displayName="Recommendations Modifier" ma:default="" ma:internalName="RecommendationsModifier" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ArtSampleDocs" ma:index="113" nillable="true" ma:displayName="Sample Docs" ma:default="" ma:hidden="true" ma:internalName="ArtSampleDocs" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ScenarioTagsTaxHTField0" ma:index="115" nillable="true" ma:taxonomy="true" ma:internalName="ScenarioTagsTaxHTField0" ma:taxonomyFieldName="ScenarioTags" ma:displayName="Scenarios" ma:readOnly="false" ma:default="" ma:fieldId="{1c8e7b99-44ca-46c8-84b8-12cd8d7cf8ee}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="4b7d5f16-e2f2-4fc0-bab3-6e8b931e57d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ShowIn" ma:index="117" nillable="true" ma:displayName="Show In" ma:default="Show everywhere" ma:internalName="ShowIn" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Hide on web"/>
+          <xsd:enumeration value="On Web no search"/>
+          <xsd:enumeration value="Show everywhere"/>
+          <xsd:enumeration value="Special use only"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SourceTitle" ma:index="118" nillable="true" ma:displayName="Source Title" ma:default="" ma:indexed="true" ma:internalName="SourceTitle" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CSXSubmissionDate" ma:index="119" nillable="true" ma:displayName="Submission Date" ma:default="" ma:internalName="CSXSubmissionDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SubmitterId" ma:index="120" nillable="true" ma:displayName="Submitter ID" ma:default="" ma:internalName="SubmitterId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="121" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="122" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TemplateStatus" ma:index="123" nillable="true" ma:displayName="Template Status" ma:default="" ma:internalName="TemplateStatus">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TemplateTemplateType" ma:index="124" nillable="true" ma:displayName="Template Type" ma:default="" ma:internalName="TemplateTemplateType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ThumbnailAssetId" ma:index="125" nillable="true" ma:displayName="Thumbnail Image Asset" ma:default="" ma:internalName="ThumbnailAssetId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TimesCloned" ma:index="126" nillable="true" ma:displayName="Times Cloned" ma:default="" ma:internalName="TimesCloned" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TrustLevel" ma:index="128" nillable="true" ma:displayName="Trust Level" ma:default="1 Microsoft Managed Content" ma:internalName="TrustLevel" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UALocComments" ma:index="129" nillable="true" ma:displayName="UA Loc Comments" ma:default="" ma:internalName="UALocComments" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UALocRecommendation" ma:index="130" nillable="true" ma:displayName="UA Loc Recommendation" ma:default="Localize" ma:internalName="UALocRecommendation" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Localize"/>
+          <xsd:enumeration value="Never Localize"/>
+          <xsd:enumeration value="Priority Localize"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UANotes" ma:index="131" nillable="true" ma:displayName="UA Notes" ma:default="" ma:internalName="UANotes" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TPAppVersion" ma:index="132" nillable="true" ma:displayName="Version" ma:default="" ma:internalName="TPAppVersion">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="VoteCount" ma:index="133" nillable="true" ma:displayName="Vote Count" ma:default="" ma:internalName="VoteCount" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="22" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="127" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
@@ -2011,1080 +3060,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
-    <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:AcquiredFrom" minOccurs="0"/>
-                <xsd:element ref="ns2:UACurrentWords" minOccurs="0"/>
-                <xsd:element ref="ns2:TPApplication" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalLog" minOccurs="0"/>
-                <xsd:element ref="ns2:ApprovalStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetStart" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetExpire" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:IsSearchable" minOccurs="0"/>
-                <xsd:element ref="ns2:AssetType" minOccurs="0"/>
-                <xsd:element ref="ns2:APAuthor" minOccurs="0"/>
-                <xsd:element ref="ns2:AverageRating" minOccurs="0"/>
-                <xsd:element ref="ns2:BlockPublish" minOccurs="0"/>
-                <xsd:element ref="ns2:BugNumber" minOccurs="0"/>
-                <xsd:element ref="ns2:CampaignTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPClientViewer" minOccurs="0"/>
-                <xsd:element ref="ns2:ClipArtFilename" minOccurs="0"/>
-                <xsd:element ref="ns2:TPCommandLine" minOccurs="0"/>
-                <xsd:element ref="ns2:TPComponent" minOccurs="0"/>
-                <xsd:element ref="ns2:ContentItem" minOccurs="0"/>
-                <xsd:element ref="ns2:CrawlForDependencies" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXHash" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewDate" minOccurs="0"/>
-                <xsd:element ref="ns2:IsDeleted" minOccurs="0"/>
-                <xsd:element ref="ns2:APDescription" minOccurs="0"/>
-                <xsd:element ref="ns2:DirectSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:Downloads" minOccurs="0"/>
-                <xsd:element ref="ns2:DSATActionTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:APEditor" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:EditorialTags" minOccurs="0"/>
-                <xsd:element ref="ns2:TPExecutable" minOccurs="0"/>
-                <xsd:element ref="ns2:FeatureTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:TPFriendlyName" minOccurs="0"/>
-                <xsd:element ref="ns2:FriendlyTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:PrimaryImageGen" minOccurs="0"/>
-                <xsd:element ref="ns2:HandoffToMSDN" minOccurs="0"/>
-                <xsd:element ref="ns2:InProjectListLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPInstallLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:InternalTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReview" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLangReviewer" minOccurs="0"/>
-                <xsd:element ref="ns2:MarketSpecific" minOccurs="0"/>
-                <xsd:element ref="ns2:LastCompleteVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastHandOff" minOccurs="0"/>
-                <xsd:element ref="ns2:LastModifiedDateTime" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPreviewVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishErrorLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishResultLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishAttemptDateLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishedByLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishTimeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LastPublishVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLinkType" minOccurs="0"/>
-                <xsd:element ref="ns2:LegacyData" minOccurs="0"/>
-                <xsd:element ref="ns2:TPLaunchHelpLink" minOccurs="0"/>
-                <xsd:element ref="ns2:LocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocLastLocAttemptVersionTypeLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocManualTestRequired" minOccurs="0"/>
-                <xsd:element ref="ns2:LocMarketGroupTiers2" minOccurs="0"/>
-                <xsd:element ref="ns2:LocNewPublishedVersionLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallHandbackStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallLocStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPreviewStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocOverallPublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:IntlLocPriority" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForHandoffsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocProcessedForMarketsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedDependentAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocPublishedLinkedAssetsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:LocRecommendedHandoff" minOccurs="0"/>
-                <xsd:element ref="ns2:LocalizationTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:MachineTranslated" minOccurs="0"/>
-                <xsd:element ref="ns2:Manager" minOccurs="0"/>
-                <xsd:element ref="ns2:Markets" minOccurs="0"/>
-                <xsd:element ref="ns2:Milestone" minOccurs="0"/>
-                <xsd:element ref="ns2:TPNamespace" minOccurs="0"/>
-                <xsd:element ref="ns2:NumericId" minOccurs="0"/>
-                <xsd:element ref="ns2:NumOfRatingsLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:OOCacheId" minOccurs="0"/>
-                <xsd:element ref="ns2:OpenTemplate" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginAsset" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalRelease" minOccurs="0"/>
-                <xsd:element ref="ns2:OriginalSourceMarket" minOccurs="0"/>
-                <xsd:element ref="ns2:OutputCachingOn" minOccurs="0"/>
-                <xsd:element ref="ns2:ParentAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:PlannedPubDate" minOccurs="0"/>
-                <xsd:element ref="ns2:PolicheckWords" minOccurs="0"/>
-                <xsd:element ref="ns2:BusinessGroup" minOccurs="0"/>
-                <xsd:element ref="ns2:UAProjectedTotalWords" minOccurs="0"/>
-                <xsd:element ref="ns2:Provider" minOccurs="0"/>
-                <xsd:element ref="ns2:Providers" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishStatusLookup" minOccurs="0"/>
-                <xsd:element ref="ns2:PublishTargets" minOccurs="0"/>
-                <xsd:element ref="ns2:RecommendationsModifier" minOccurs="0"/>
-                <xsd:element ref="ns2:ArtSampleDocs" minOccurs="0"/>
-                <xsd:element ref="ns2:ScenarioTagsTaxHTField0" minOccurs="0"/>
-                <xsd:element ref="ns2:ShowIn" minOccurs="0"/>
-                <xsd:element ref="ns2:SourceTitle" minOccurs="0"/>
-                <xsd:element ref="ns2:CSXSubmissionDate" minOccurs="0"/>
-                <xsd:element ref="ns2:SubmitterId" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:TemplateTemplateType" minOccurs="0"/>
-                <xsd:element ref="ns2:ThumbnailAssetId" minOccurs="0"/>
-                <xsd:element ref="ns2:TimesCloned" minOccurs="0"/>
-                <xsd:element ref="ns2:TrustLevel" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocComments" minOccurs="0"/>
-                <xsd:element ref="ns2:UALocRecommendation" minOccurs="0"/>
-                <xsd:element ref="ns2:UANotes" minOccurs="0"/>
-                <xsd:element ref="ns2:TPAppVersion" minOccurs="0"/>
-                <xsd:element ref="ns2:VoteCount" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="AcquiredFrom" ma:index="1" nillable="true" ma:displayName="Acquired From" ma:default="Internal MS" ma:internalName="AcquiredFrom" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Internal MS"/>
-          <xsd:enumeration value="Community"/>
-          <xsd:enumeration value="MVP"/>
-          <xsd:enumeration value="Publisher"/>
-          <xsd:enumeration value="Partner"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UACurrentWords" ma:index="2" nillable="true" ma:displayName="Actual Word Count" ma:default="" ma:internalName="UACurrentWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPApplication" ma:index="3" nillable="true" ma:displayName="Application to Open Template With" ma:default="" ma:internalName="TPApplication">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalLog" ma:index="4" nillable="true" ma:displayName="Approval Log" ma:default="" ma:hidden="true" ma:internalName="ApprovalLog" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ApprovalStatus" ma:index="5" nillable="true" ma:displayName="Approval Status" ma:default="InProgress" ma:internalName="ApprovalStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="InProgress"/>
-          <xsd:enumeration value="Rejected"/>
-          <xsd:enumeration value="Questionable"/>
-          <xsd:enumeration value="ApprovedAutomatic"/>
-          <xsd:enumeration value="ApprovedManual"/>
-          <xsd:enumeration value="On Hold"/>
-          <xsd:enumeration value="Needs Review"/>
-          <xsd:enumeration value="A Violation"/>
-          <xsd:enumeration value="Unpublished Violation"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetStart" ma:index="6" nillable="true" ma:displayName="Asset Begin Date" ma:default="[Today]" ma:internalName="AssetStart" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetExpire" ma:index="7" nillable="true" ma:displayName="Asset End Date" ma:default="2029-01-01T00:00:00Z" ma:internalName="AssetExpire" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetId" ma:index="8" nillable="true" ma:displayName="Asset ID" ma:default="" ma:indexed="true" ma:internalName="AssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsSearchable" ma:index="9" nillable="true" ma:displayName="Asset Searchable?" ma:default="true" ma:internalName="IsSearchable" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AssetType" ma:index="10" nillable="true" ma:displayName="Asset Type" ma:default="" ma:internalName="AssetType" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APAuthor" ma:index="11" nillable="true" ma:displayName="Author" ma:default="" ma:list="UserInfo" ma:internalName="APAuthor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="AverageRating" ma:index="12" nillable="true" ma:displayName="Average Rating" ma:internalName="AverageRating" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BlockPublish" ma:index="13" nillable="true" ma:displayName="Block from Publishing?" ma:default="" ma:internalName="BlockPublish" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BugNumber" ma:index="14" nillable="true" ma:displayName="Bug Number" ma:default="" ma:internalName="BugNumber" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CampaignTagsTaxHTField0" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="CampaignTagsTaxHTField0" ma:taxonomyFieldName="CampaignTags" ma:displayName="Campaigns" ma:readOnly="false" ma:default="" ma:fieldId="{04032b9e-8ee6-4e89-b9db-4ffff205d025}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="ca0e50d4-faa1-44ce-961e-bb1441c60e66" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPClientViewer" ma:index="17" nillable="true" ma:displayName="Client Viewer" ma:default="" ma:internalName="TPClientViewer">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ClipArtFilename" ma:index="18" nillable="true" ma:displayName="Clip Art Name" ma:default="" ma:internalName="ClipArtFilename" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPCommandLine" ma:index="19" nillable="true" ma:displayName="Command Line" ma:default="" ma:internalName="TPCommandLine">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPComponent" ma:index="20" nillable="true" ma:displayName="Component" ma:default="" ma:internalName="TPComponent">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ContentItem" ma:index="21" nillable="true" ma:displayName="Content Item" ma:default="" ma:hidden="true" ma:internalName="ContentItem" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CrawlForDependencies" ma:index="23" nillable="true" ma:displayName="Crawl for Dependencies?" ma:default="true" ma:internalName="CrawlForDependencies" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXHash" ma:index="26" nillable="true" ma:displayName="CSX Hash" ma:default="" ma:indexed="true" ma:internalName="CSXHash" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionMarket" ma:index="27" nillable="true" ma:displayName="CSX Submission Market" ma:default="" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="CSXSubmissionMarket" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXUpdate" ma:index="28" nillable="true" ma:displayName="CSX Updated?" ma:default="false" ma:internalName="CSXUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewDate" ma:index="29" nillable="true" ma:displayName="Date to Complete Intl QA" ma:default="" ma:internalName="IntlLangReviewDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IsDeleted" ma:index="30" nillable="true" ma:displayName="Deleted?" ma:default="" ma:internalName="IsDeleted" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APDescription" ma:index="31" nillable="true" ma:displayName="Description" ma:default="" ma:internalName="APDescription" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DirectSourceMarket" ma:index="32" nillable="true" ma:displayName="Direct Source Market Group" ma:default="" ma:internalName="DirectSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Downloads" ma:index="33" nillable="true" ma:displayName="Downloads" ma:default="0" ma:hidden="true" ma:internalName="Downloads" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DSATActionTaken" ma:index="34" nillable="true" ma:displayName="DSAT Action Taken" ma:default="" ma:internalName="DSATActionTaken" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Best Bets"/>
-          <xsd:enumeration value="Expire"/>
-          <xsd:enumeration value="Hide"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="APEditor" ma:index="35" nillable="true" ma:displayName="Editor" ma:default="" ma:list="UserInfo" ma:internalName="APEditor" ma:readOnly="false">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="EditorialStatus" ma:index="36" nillable="true" ma:displayName="Editorial Status" ma:default="" ma:internalName="EditorialStatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EditorialTags" ma:index="37" nillable="true" ma:displayName="Editorial Tags" ma:default="" ma:internalName="EditorialTags">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPExecutable" ma:index="38" nillable="true" ma:displayName="Executable" ma:default="" ma:internalName="TPExecutable">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FeatureTagsTaxHTField0" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="FeatureTagsTaxHTField0" ma:taxonomyFieldName="FeatureTags" ma:displayName="Features" ma:readOnly="false" ma:default="" ma:fieldId="{5dcf7547-996b-4a0e-b7d1-0f761d14131b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="f1ab6845-967d-4854-a0ba-4ec07f0f8113" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPFriendlyName" ma:index="41" nillable="true" ma:displayName="Friendly Name" ma:default="" ma:internalName="TPFriendlyName">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FriendlyTitle" ma:index="42" nillable="true" ma:displayName="Friendly Title" ma:default="" ma:description="Shorter title to be used when displaying search results" ma:internalName="FriendlyTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PrimaryImageGen" ma:index="43" nillable="true" ma:displayName="Generate Images?" ma:default="true" ma:internalName="PrimaryImageGen">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="HandoffToMSDN" ma:index="44" nillable="true" ma:displayName="Handoff To MSDN Date" ma:default="" ma:internalName="HandoffToMSDN" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InProjectListLookup" ma:index="45" nillable="true" ma:displayName="InProjectListLookup" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="InProjectListLookup" ma:readOnly="true" ma:showField="InProjectList" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPInstallLocation" ma:index="46" nillable="true" ma:displayName="Install Location" ma:default="" ma:internalName="TPInstallLocation">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InternalTagsTaxHTField0" ma:index="48" nillable="true" ma:taxonomy="true" ma:internalName="InternalTagsTaxHTField0" ma:taxonomyFieldName="InternalTags" ma:displayName="Internal Tags" ma:readOnly="false" ma:default="" ma:fieldId="{e5aec8e1-0842-4156-acaa-2defcf90540a}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="82b6639e-f7fc-4c18-ad2d-003a6e707765" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="IntlLangReview" ma:index="49" nillable="true" ma:displayName="Intl Lang QA Review Required?" ma:default="" ma:internalName="IntlLangReview" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLangReviewer" ma:index="50" nillable="true" ma:displayName="Intl Lang QA Reviewer" ma:default="" ma:internalName="IntlLangReviewer" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MarketSpecific" ma:index="51" nillable="true" ma:displayName="Is Market Specific?" ma:default="" ma:internalName="MarketSpecific" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastCompleteVersionLookup" ma:index="52" nillable="true" ma:displayName="Last Complete Version Lookup" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastCompleteVersionLookup" ma:readOnly="true" ma:showField="LastCompleteVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastHandOff" ma:index="53" nillable="true" ma:displayName="Last Hand-off" ma:default="" ma:internalName="LastHandOff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastModifiedDateTime" ma:index="54" nillable="true" ma:displayName="Last Modified Date" ma:default="" ma:internalName="LastModifiedDateTime" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastPreviewErrorLookup" ma:index="55" nillable="true" ma:displayName="Last Preview Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewErrorLookup" ma:readOnly="true" ma:showField="LastPreviewError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewResultLookup" ma:index="56" nillable="true" ma:displayName="Last Preview Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewResultLookup" ma:readOnly="true" ma:showField="LastPreviewResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewAttemptDateLookup" ma:index="57" nillable="true" ma:displayName="Last Preview Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewAttemptDateLookup" ma:readOnly="true" ma:showField="LastPreviewAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewedByLookup" ma:index="58" nillable="true" ma:displayName="Last Previewed By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewedByLookup" ma:readOnly="true" ma:showField="LastPreviewedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewTimeLookup" ma:index="59" nillable="true" ma:displayName="Last Previewed Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewTimeLookup" ma:readOnly="true" ma:showField="LastPreviewTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPreviewVersionLookup" ma:index="60" nillable="true" ma:displayName="Last Previewed Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPreviewVersionLookup" ma:readOnly="true" ma:showField="LastPreviewVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishErrorLookup" ma:index="61" nillable="true" ma:displayName="Last Publish Attempt Error" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishErrorLookup" ma:readOnly="true" ma:showField="LastPublishError" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishResultLookup" ma:index="62" nillable="true" ma:displayName="Last Publish Attempt Result" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishResultLookup" ma:readOnly="true" ma:showField="LastPublishResult" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishAttemptDateLookup" ma:index="63" nillable="true" ma:displayName="Last Publish Attempted On" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishAttemptDateLookup" ma:readOnly="true" ma:showField="LastPublishAttemptDate" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishedByLookup" ma:index="64" nillable="true" ma:displayName="Last Published By" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishedByLookup" ma:readOnly="true" ma:showField="LastPublishedBy" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishTimeLookup" ma:index="65" nillable="true" ma:displayName="Last Published Date" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishTimeLookup" ma:readOnly="true" ma:showField="LastPublishTime" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="LastPublishVersionLookup" ma:index="66" nillable="true" ma:displayName="Last Published Version" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="LastPublishVersionLookup" ma:readOnly="true" ma:showField="LastPublishVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLinkType" ma:index="67" nillable="true" ma:displayName="Launch Help Link Type" ma:default="Template" ma:internalName="TPLaunchHelpLinkType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Template"/>
-          <xsd:enumeration value="Training"/>
-          <xsd:enumeration value="URL"/>
-          <xsd:enumeration value="None"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LegacyData" ma:index="68" nillable="true" ma:displayName="Legacy Data" ma:default="" ma:internalName="LegacyData" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPLaunchHelpLink" ma:index="69" nillable="true" ma:displayName="Link to Launch Help Topic" ma:default="" ma:internalName="TPLaunchHelpLink">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocComments" ma:index="70" nillable="true" ma:displayName="Loc Approval Comments" ma:default="" ma:internalName="LocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionLookup" ma:index="71" nillable="true" ma:displayName="Loc Last Loc Attempt Version" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionLookup" ma:readOnly="false" ma:showField="LastLocAttemptVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocLastLocAttemptVersionTypeLookup" ma:index="72" nillable="true" ma:displayName="Loc Last Loc Attempt Version Type" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocLastLocAttemptVersionTypeLookup" ma:readOnly="true" ma:showField="LastLocAttemptVersionType" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocManualTestRequired" ma:index="73" nillable="true" ma:displayName="Loc Manual Test Required" ma:default="" ma:internalName="LocManualTestRequired" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocMarketGroupTiers2" ma:index="74" nillable="true" ma:displayName="Loc Market Group Tiers" ma:internalName="LocMarketGroupTiers2" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocNewPublishedVersionLookup" ma:index="75" nillable="true" ma:displayName="Loc New Published Version Lookup" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocNewPublishedVersionLookup" ma:readOnly="true" ma:showField="NewPublishedVersion" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallHandbackStatusLookup" ma:index="76" nillable="true" ma:displayName="Loc Overall Handback Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallHandbackStatusLookup" ma:readOnly="true" ma:showField="OverallHandbackStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallLocStatusLookup" ma:index="77" nillable="true" ma:displayName="Loc Overall Localize Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallLocStatusLookup" ma:readOnly="true" ma:showField="OverallLocStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPreviewStatusLookup" ma:index="78" nillable="true" ma:displayName="Loc Overall Preview Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPreviewStatusLookup" ma:readOnly="true" ma:showField="OverallPreviewStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocOverallPublishStatusLookup" ma:index="79" nillable="true" ma:displayName="Loc Overall Publish Status" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocOverallPublishStatusLookup" ma:readOnly="true" ma:showField="OverallPublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="IntlLocPriority" ma:index="80" nillable="true" ma:displayName="Loc Priority" ma:default="" ma:internalName="IntlLocPriority" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForHandoffsLookup" ma:index="81" nillable="true" ma:displayName="Loc Processed For Handoffs" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForHandoffsLookup" ma:readOnly="true" ma:showField="ProcessedForHandoffs" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocProcessedForMarketsLookup" ma:index="82" nillable="true" ma:displayName="Loc Processed For Markets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocProcessedForMarketsLookup" ma:readOnly="true" ma:showField="ProcessedForMarkets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedDependentAssetsLookup" ma:index="83" nillable="true" ma:displayName="Loc Published Dependent Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedDependentAssetsLookup" ma:readOnly="true" ma:showField="PublishedDependentAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocPublishedLinkedAssetsLookup" ma:index="84" nillable="true" ma:displayName="Loc Published Linked Assets" ma:default="" ma:list="{BC39992D-5589-4A4E-8B38-02E0637E5C25}" ma:internalName="LocPublishedLinkedAssetsLookup" ma:readOnly="true" ma:showField="PublishedLinkedAssets" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocRecommendedHandoff" ma:index="85" nillable="true" ma:displayName="Loc Recommended Handoff" ma:default="" ma:indexed="true" ma:internalName="LocRecommendedHandoff" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LocalizationTagsTaxHTField0" ma:index="87" nillable="true" ma:taxonomy="true" ma:internalName="LocalizationTagsTaxHTField0" ma:taxonomyFieldName="LocalizationTags" ma:displayName="Localization Tags" ma:readOnly="false" ma:default="" ma:fieldId="{28ca5b26-415b-4822-b35b-d9a845b1b83b}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="5b7703a5-8e8b-4b58-8b31-1cea35331da3" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MachineTranslated" ma:index="88" nillable="true" ma:displayName="Machine Translated" ma:default="" ma:internalName="MachineTranslated" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Manager" ma:index="89" nillable="true" ma:displayName="Manager" ma:hidden="true" ma:internalName="Manager" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Markets" ma:index="90" nillable="true" ma:displayName="Markets" ma:default="" ma:description="Leave blank to show in all markets" ma:list="{388FC2BA-F530-4FF7-911A-621CAE6AFBD3}" ma:internalName="Markets" ma:readOnly="false" ma:showField="MarketName" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Milestone" ma:index="91" nillable="true" ma:displayName="Milestone" ma:default="" ma:internalName="Milestone" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPNamespace" ma:index="94" nillable="true" ma:displayName="Namespace" ma:default="" ma:internalName="TPNamespace">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumericId" ma:index="95" nillable="true" ma:displayName="Numeric ID" ma:default="" ma:indexed="true" ma:internalName="NumericId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="NumOfRatingsLookup" ma:index="96" nillable="true" ma:displayName="NumOfRatings" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="NumOfRatingsLookup" ma:readOnly="true" ma:showField="NumOfRatings" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="OOCacheId" ma:index="97" nillable="true" ma:displayName="OOCacheId" ma:internalName="OOCacheId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OpenTemplate" ma:index="98" nillable="true" ma:displayName="Open Template" ma:default="true" ma:internalName="OpenTemplate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginAsset" ma:index="99" nillable="true" ma:displayName="Origin Asset" ma:default="" ma:internalName="OriginAsset" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalRelease" ma:index="100" nillable="true" ma:displayName="Original Release" ma:default="15" ma:internalName="OriginalRelease" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="14"/>
-          <xsd:enumeration value="15"/>
-          <xsd:enumeration value="16"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OriginalSourceMarket" ma:index="101" nillable="true" ma:displayName="Original Source Market Group" ma:default="" ma:internalName="OriginalSourceMarket" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OutputCachingOn" ma:index="102" nillable="true" ma:displayName="Output Caching" ma:default="true" ma:hidden="true" ma:internalName="OutputCachingOn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ParentAssetId" ma:index="103" nillable="true" ma:displayName="Parent Asset Id" ma:default="" ma:internalName="ParentAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PlannedPubDate" ma:index="104" nillable="true" ma:displayName="Planned Publish Date" ma:default="" ma:indexed="true" ma:internalName="PlannedPubDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PolicheckWords" ma:index="105" nillable="true" ma:displayName="Policheck Words" ma:default="" ma:internalName="PolicheckWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BusinessGroup" ma:index="106" nillable="true" ma:displayName="Product Division Owner" ma:default="" ma:internalName="BusinessGroup" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UAProjectedTotalWords" ma:index="107" nillable="true" ma:displayName="Projected Word Count" ma:default="" ma:internalName="UAProjectedTotalWords" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Provider" ma:index="108" nillable="true" ma:displayName="Provider" ma:default="" ma:internalName="Provider" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Providers" ma:index="109" nillable="true" ma:displayName="Providers" ma:default="" ma:internalName="Providers">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PublishStatusLookup" ma:index="110" nillable="true" ma:displayName="Publish Status" ma:default="" ma:list="{4D83B164-8C00-474C-8363-38E0B8FF22E3}" ma:internalName="PublishStatusLookup" ma:readOnly="false" ma:showField="PublishStatus" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="PublishTargets" ma:index="111" nillable="true" ma:displayName="Publish Target" ma:default="OfficeOnlineVNext" ma:internalName="PublishTargets" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RecommendationsModifier" ma:index="112" nillable="true" ma:displayName="Recommendations Modifier" ma:default="" ma:internalName="RecommendationsModifier" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ArtSampleDocs" ma:index="113" nillable="true" ma:displayName="Sample Docs" ma:default="" ma:hidden="true" ma:internalName="ArtSampleDocs" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ScenarioTagsTaxHTField0" ma:index="115" nillable="true" ma:taxonomy="true" ma:internalName="ScenarioTagsTaxHTField0" ma:taxonomyFieldName="ScenarioTags" ma:displayName="Scenarios" ma:readOnly="false" ma:default="" ma:fieldId="{1c8e7b99-44ca-46c8-84b8-12cd8d7cf8ee}" ma:taxonomyMulti="true" ma:sspId="8f79753a-75d3-41f5-8ca3-40b843941b4f" ma:termSetId="4b7d5f16-e2f2-4fc0-bab3-6e8b931e57d6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ShowIn" ma:index="117" nillable="true" ma:displayName="Show In" ma:default="Show everywhere" ma:internalName="ShowIn" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Hide on web"/>
-          <xsd:enumeration value="On Web no search"/>
-          <xsd:enumeration value="Show everywhere"/>
-          <xsd:enumeration value="Special use only"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SourceTitle" ma:index="118" nillable="true" ma:displayName="Source Title" ma:default="" ma:indexed="true" ma:internalName="SourceTitle" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CSXSubmissionDate" ma:index="119" nillable="true" ma:displayName="Submission Date" ma:default="" ma:internalName="CSXSubmissionDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SubmitterId" ma:index="120" nillable="true" ma:displayName="Submitter ID" ma:default="" ma:internalName="SubmitterId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="121" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="122" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{c59171da-55f1-4c8b-8421-0d1d3f99d741}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TemplateStatus" ma:index="123" nillable="true" ma:displayName="Template Status" ma:default="" ma:internalName="TemplateStatus">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TemplateTemplateType" ma:index="124" nillable="true" ma:displayName="Template Type" ma:default="" ma:internalName="TemplateTemplateType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ThumbnailAssetId" ma:index="125" nillable="true" ma:displayName="Thumbnail Image Asset" ma:default="" ma:internalName="ThumbnailAssetId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TimesCloned" ma:index="126" nillable="true" ma:displayName="Times Cloned" ma:default="" ma:internalName="TimesCloned" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TrustLevel" ma:index="128" nillable="true" ma:displayName="Trust Level" ma:default="1 Microsoft Managed Content" ma:internalName="TrustLevel" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocComments" ma:index="129" nillable="true" ma:displayName="UA Loc Comments" ma:default="" ma:internalName="UALocComments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UALocRecommendation" ma:index="130" nillable="true" ma:displayName="UA Loc Recommendation" ma:default="Localize" ma:internalName="UALocRecommendation" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Localize"/>
-          <xsd:enumeration value="Never Localize"/>
-          <xsd:enumeration value="Priority Localize"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UANotes" ma:index="131" nillable="true" ma:displayName="UA Notes" ma:default="" ma:internalName="UANotes" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TPAppVersion" ma:index="132" nillable="true" ma:displayName="Version" ma:default="" ma:internalName="TPAppVersion">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="VoteCount" ma:index="133" nillable="true" ma:displayName="Vote Count" ma:default="" ma:internalName="VoteCount" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="22" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="127" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE70CA04-6118-4D7D-973A-6229EC59A34E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3100,4 +3076,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>